--- a/basic_portfolio.xlsx
+++ b/basic_portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/kadai/kadai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{C6F4126F-DA68-4C4B-9D0B-397E073F88F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6E2694-A939-4970-ACC8-56338894D5F8}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{C6F4126F-DA68-4C4B-9D0B-397E073F88F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80AA3EF0-54D1-4AD2-BF60-78DCCE49DB83}"/>
   <bookViews>
-    <workbookView xWindow="36600" yWindow="2820" windowWidth="17280" windowHeight="9030" tabRatio="774" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -610,6 +610,13 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>＜　2022 3月　＞</t>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +625,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -736,6 +743,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -910,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1191,38 +1205,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,34 +1268,37 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,6 +1338,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5534,124 +5551,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="154" t="s">
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="156"/>
+      <c r="AH2" s="135"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="135"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -5872,23 +5889,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -5902,31 +5919,31 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="157" t="s">
+      <c r="AC6" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="157"/>
-      <c r="AF6" s="158"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="137"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -5940,10 +5957,10 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="160"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="139"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -5986,51 +6003,51 @@
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="149"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="143" t="s">
+      <c r="K9" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="143" t="s">
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="143" t="s">
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="143" t="s">
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="143" t="s">
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="143" t="s">
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="143" t="s">
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
       <c r="AF9" s="39"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="39"/>
@@ -6038,35 +6055,35 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="143"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
       <c r="AF10" s="39"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="39"/>
@@ -6074,11 +6091,11 @@
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="35"/>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="146"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -6128,12 +6145,12 @@
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="155"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -6180,10 +6197,10 @@
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -6718,14 +6735,14 @@
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
       <c r="I26" s="35"/>
       <c r="J26" s="39"/>
       <c r="K26" s="34">
@@ -6822,16 +6839,16 @@
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="140" t="s">
+      <c r="D28" s="162"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="141"/>
-      <c r="H28" s="142"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="163"/>
       <c r="I28" s="35"/>
       <c r="J28" s="39"/>
       <c r="K28" s="35"/>
@@ -7205,26 +7222,26 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="138"/>
-      <c r="R38" s="138"/>
-      <c r="S38" s="138"/>
-      <c r="T38" s="138"/>
-      <c r="U38" s="138"/>
-      <c r="V38" s="138"/>
-      <c r="W38" s="138"/>
-      <c r="X38" s="138"/>
-      <c r="Y38" s="138"/>
-      <c r="Z38" s="138"/>
-      <c r="AA38" s="138"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="159"/>
+      <c r="S38" s="159"/>
+      <c r="T38" s="159"/>
+      <c r="U38" s="159"/>
+      <c r="V38" s="159"/>
+      <c r="W38" s="159"/>
+      <c r="X38" s="159"/>
+      <c r="Y38" s="159"/>
+      <c r="Z38" s="159"/>
+      <c r="AA38" s="159"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -7379,11 +7396,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="W9:Y10"/>
-    <mergeCell ref="Z9:AB10"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:F13"/>
@@ -7398,15 +7419,11 @@
     <mergeCell ref="N9:P10"/>
     <mergeCell ref="Q9:S10"/>
     <mergeCell ref="T9:V10"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="W9:Y10"/>
+    <mergeCell ref="Z9:AB10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7423,7 +7440,7 @@
   <dimension ref="A1:FV42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:N10"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -7437,124 +7454,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="154" t="s">
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="156"/>
+      <c r="AH2" s="135"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="135"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -7775,23 +7792,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -7805,31 +7822,31 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="157" t="s">
+      <c r="AC6" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="157"/>
-      <c r="AF6" s="158"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="137"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -7843,10 +7860,10 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="160"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="139"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -8676,12 +8693,12 @@
       <c r="T30" s="96"/>
       <c r="U30" s="96"/>
       <c r="V30" s="96"/>
-      <c r="W30" s="148" t="s">
+      <c r="W30" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="150"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="149"/>
       <c r="AA30" s="96"/>
       <c r="AB30" s="96"/>
       <c r="AC30" s="96"/>
@@ -8750,10 +8767,10 @@
       <c r="T32" s="96"/>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="152"/>
-      <c r="Y32" s="152"/>
-      <c r="Z32" s="153"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="152"/>
       <c r="AA32" s="96"/>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
@@ -8951,26 +8968,26 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="138"/>
-      <c r="R38" s="138"/>
-      <c r="S38" s="138"/>
-      <c r="T38" s="138"/>
-      <c r="U38" s="138"/>
-      <c r="V38" s="138"/>
-      <c r="W38" s="138"/>
-      <c r="X38" s="138"/>
-      <c r="Y38" s="138"/>
-      <c r="Z38" s="138"/>
-      <c r="AA38" s="138"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="159"/>
+      <c r="S38" s="159"/>
+      <c r="T38" s="159"/>
+      <c r="U38" s="159"/>
+      <c r="V38" s="159"/>
+      <c r="W38" s="159"/>
+      <c r="X38" s="159"/>
+      <c r="Y38" s="159"/>
+      <c r="Z38" s="159"/>
+      <c r="AA38" s="159"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -9125,13 +9142,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="W30:Z32"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="M6:O7"/>
     <mergeCell ref="AC6:AF7"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
@@ -9142,6 +9152,13 @@
     <mergeCell ref="G3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="W30:Z32"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="M6:O7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9172,121 +9189,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="154" t="s">
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="156"/>
+      <c r="AG2" s="135"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="135"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -9505,22 +9522,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -9534,30 +9551,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="157" t="s">
+      <c r="AB6" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="158"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="137"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -9571,10 +9588,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="160"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="139"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -10810,13 +10827,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M14:U16"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="S20:W21"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -10828,6 +10838,13 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="M14:U16"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="S20:W21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10843,7 +10860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
@@ -14168,15 +14185,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14193,7 +14210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5B65FE-CE41-4C6C-B23F-D867639CB7EA}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
@@ -15843,15 +15860,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15868,8 +15885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EC8C9-8A95-4096-ACFB-FEBC0BB9F051}">
   <dimension ref="A1:FV42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -15883,124 +15900,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="154" t="s">
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="156"/>
+      <c r="AH2" s="135"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="135"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -16221,23 +16238,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -16251,31 +16268,31 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="157" t="s">
+      <c r="AC6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="157"/>
-      <c r="AF6" s="158"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="137"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -16289,10 +16306,10 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="160"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="139"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -16335,51 +16352,51 @@
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="149"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="143" t="s">
+      <c r="K9" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="143" t="s">
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="143" t="s">
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="143" t="s">
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="143" t="s">
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="143" t="s">
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="143" t="s">
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
       <c r="AF9" s="39"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="39"/>
@@ -16387,35 +16404,35 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="143"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
       <c r="AF10" s="39"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="39"/>
@@ -16423,12 +16440,10 @@
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="35"/>
-      <c r="C11" s="145" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -16477,14 +16492,14 @@
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
       <c r="I12" s="35"/>
       <c r="J12" s="39"/>
       <c r="K12" s="35"/>
@@ -16515,12 +16530,12 @@
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
       <c r="I13" s="35"/>
       <c r="J13" s="39"/>
       <c r="K13" s="35"/>
@@ -17025,14 +17040,14 @@
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
       <c r="I26" s="35"/>
       <c r="J26" s="39"/>
       <c r="K26" s="34">
@@ -17115,16 +17130,16 @@
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="140" t="s">
+      <c r="D28" s="162"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="141"/>
-      <c r="H28" s="142"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="163"/>
       <c r="I28" s="35"/>
       <c r="J28" s="39"/>
       <c r="K28" s="35"/>
@@ -17492,28 +17507,28 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="138" t="s">
+      <c r="H38" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="138"/>
-      <c r="R38" s="138"/>
-      <c r="S38" s="138"/>
-      <c r="T38" s="138"/>
-      <c r="U38" s="138"/>
-      <c r="V38" s="138"/>
-      <c r="W38" s="138"/>
-      <c r="X38" s="138"/>
-      <c r="Y38" s="138"/>
-      <c r="Z38" s="138"/>
-      <c r="AA38" s="138"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="159"/>
+      <c r="S38" s="159"/>
+      <c r="T38" s="159"/>
+      <c r="U38" s="159"/>
+      <c r="V38" s="159"/>
+      <c r="W38" s="159"/>
+      <c r="X38" s="159"/>
+      <c r="Y38" s="159"/>
+      <c r="Z38" s="159"/>
+      <c r="AA38" s="159"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -17667,12 +17682,20 @@
       <c r="AH42" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+  <mergeCells count="27">
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="W9:Y10"/>
+    <mergeCell ref="Z9:AB10"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="C9:I10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="Q9:S10"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -17682,20 +17705,11 @@
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="J6:L7"/>
     <mergeCell ref="M6:O7"/>
-    <mergeCell ref="T9:V10"/>
-    <mergeCell ref="W9:Y10"/>
-    <mergeCell ref="Z9:AB10"/>
-    <mergeCell ref="AC9:AE10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C9:I10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="Q9:S10"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17726,121 +17740,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="154" t="s">
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="156"/>
+      <c r="AG2" s="135"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="135"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -18059,22 +18073,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -18088,28 +18102,28 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="157"/>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="158"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="137"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -18123,10 +18137,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="160"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="139"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -19367,22 +19381,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L12:R13"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="C6:E7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
     <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="L12:R13"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19413,121 +19427,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="154" t="s">
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="156"/>
+      <c r="AG2" s="135"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="135"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -19746,22 +19760,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -19775,28 +19789,28 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="157"/>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="158"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="137"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -19810,10 +19824,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="160"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="139"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -21054,12 +21068,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="E9:K11"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
@@ -21070,6 +21078,12 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="E9:K11"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21100,121 +21114,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="154" t="s">
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="156"/>
+      <c r="AG2" s="135"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="135"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -21433,22 +21447,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -21462,30 +21476,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="157" t="s">
+      <c r="AB6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="158"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="137"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -21499,10 +21513,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="160"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="139"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -22747,14 +22761,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="I13:Z15"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="U28:W29"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -22766,6 +22772,14 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="I13:Z15"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="U28:W29"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22796,121 +22810,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="154" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="154" t="s">
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="156"/>
+      <c r="AG2" s="135"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="156"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="135"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -23129,22 +23143,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -23158,30 +23172,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="157" t="s">
+      <c r="AB6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="158"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="137"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -23195,10 +23209,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="160"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="139"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -24434,13 +24448,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="M14:U16"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="T20:X21"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -24452,6 +24459,13 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="M14:U16"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="T20:X21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/basic_portfolio.xlsx
+++ b/basic_portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/kadai/kadai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{C6F4126F-DA68-4C4B-9D0B-397E073F88F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80AA3EF0-54D1-4AD2-BF60-78DCCE49DB83}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{C6F4126F-DA68-4C4B-9D0B-397E073F88F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2A17255-2B4E-49C4-AF88-2B53C87F9466}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20205" yWindow="4890" windowWidth="17280" windowHeight="9030" tabRatio="774" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="82">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -614,6 +614,13 @@
     <t>＜　2022 3月　＞</t>
     <rPh sb="8" eb="9">
       <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1205,8 +1212,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1235,70 +1284,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,16 +1317,37 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5536,8 +5543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CE2781-1483-47A5-B292-F5B0B076A787}">
   <dimension ref="A1:FV42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -5551,124 +5558,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="133" t="s">
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="135"/>
+      <c r="AH2" s="149"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="149"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -5889,23 +5896,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -5917,33 +5924,35 @@
       <c r="X6" s="34"/>
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="136" t="s">
+      <c r="AA6" s="150" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="137"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="151"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -5955,12 +5964,12 @@
       <c r="X7" s="42"/>
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="139"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="153"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -6003,51 +6012,51 @@
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="149"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="142" t="s">
+      <c r="K9" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="142" t="s">
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="142" t="s">
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="142" t="s">
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="142" t="s">
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="142" t="s">
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="142" t="s">
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="139"/>
       <c r="AF9" s="39"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="39"/>
@@ -6055,35 +6064,35 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="152"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
       <c r="AF10" s="39"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="39"/>
@@ -6091,11 +6100,11 @@
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="35"/>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -6145,12 +6154,12 @@
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -6197,10 +6206,10 @@
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -6735,14 +6744,14 @@
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
       <c r="I26" s="35"/>
       <c r="J26" s="39"/>
       <c r="K26" s="34">
@@ -6839,16 +6848,16 @@
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="161" t="s">
+      <c r="C28" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="161" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="162"/>
-      <c r="H28" s="163"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136"/>
       <c r="I28" s="35"/>
       <c r="J28" s="39"/>
       <c r="K28" s="35"/>
@@ -7222,26 +7231,26 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="159"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="159"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="159"/>
-      <c r="S38" s="159"/>
-      <c r="T38" s="159"/>
-      <c r="U38" s="159"/>
-      <c r="V38" s="159"/>
-      <c r="W38" s="159"/>
-      <c r="X38" s="159"/>
-      <c r="Y38" s="159"/>
-      <c r="Z38" s="159"/>
-      <c r="AA38" s="159"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -7395,16 +7404,12 @@
       <c r="AH42" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+  <mergeCells count="29">
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="W9:Y10"/>
+    <mergeCell ref="Z9:AB10"/>
     <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:F13"/>
@@ -7419,11 +7424,16 @@
     <mergeCell ref="N9:P10"/>
     <mergeCell ref="Q9:S10"/>
     <mergeCell ref="T9:V10"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="W9:Y10"/>
-    <mergeCell ref="Z9:AB10"/>
+    <mergeCell ref="AA6:AB7"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7454,124 +7464,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="133" t="s">
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="135"/>
+      <c r="AH2" s="149"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="149"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -7792,23 +7802,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -7822,31 +7832,31 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="137"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="151"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -7860,10 +7870,10 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="139"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="153"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -7907,15 +7917,15 @@
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
       <c r="C9" s="95"/>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
       <c r="K9" s="96"/>
       <c r="L9" s="96"/>
       <c r="M9" s="96"/>
@@ -7945,13 +7955,13 @@
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
       <c r="K10" s="96"/>
       <c r="L10" s="96"/>
       <c r="M10" s="96"/>
@@ -8693,12 +8703,12 @@
       <c r="T30" s="96"/>
       <c r="U30" s="96"/>
       <c r="V30" s="96"/>
-      <c r="W30" s="147" t="s">
+      <c r="W30" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="149"/>
+      <c r="X30" s="141"/>
+      <c r="Y30" s="141"/>
+      <c r="Z30" s="142"/>
       <c r="AA30" s="96"/>
       <c r="AB30" s="96"/>
       <c r="AC30" s="96"/>
@@ -8731,10 +8741,10 @@
       <c r="T31" s="96"/>
       <c r="U31" s="96"/>
       <c r="V31" s="96"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="175"/>
-      <c r="Y31" s="175"/>
-      <c r="Z31" s="176"/>
+      <c r="W31" s="143"/>
+      <c r="X31" s="144"/>
+      <c r="Y31" s="144"/>
+      <c r="Z31" s="177"/>
       <c r="AA31" s="96"/>
       <c r="AB31" s="96"/>
       <c r="AC31" s="96"/>
@@ -8767,10 +8777,10 @@
       <c r="T32" s="96"/>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
-      <c r="W32" s="150"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="152"/>
+      <c r="W32" s="176"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="146"/>
       <c r="AA32" s="96"/>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
@@ -8968,26 +8978,26 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="159"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="159"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="159"/>
-      <c r="S38" s="159"/>
-      <c r="T38" s="159"/>
-      <c r="U38" s="159"/>
-      <c r="V38" s="159"/>
-      <c r="W38" s="159"/>
-      <c r="X38" s="159"/>
-      <c r="Y38" s="159"/>
-      <c r="Z38" s="159"/>
-      <c r="AA38" s="159"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -9142,6 +9152,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="W30:Z32"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="M6:O7"/>
     <mergeCell ref="AC6:AF7"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
@@ -9152,13 +9169,6 @@
     <mergeCell ref="G3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="W30:Z32"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="M6:O7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9189,121 +9199,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="149"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="149"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -9522,22 +9532,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -9551,30 +9561,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="151"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -9588,10 +9598,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="153"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -9635,15 +9645,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -9672,13 +9682,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -9707,13 +9717,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -9819,17 +9829,17 @@
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="L14" s="86"/>
-      <c r="M14" s="173" t="s">
+      <c r="M14" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
       <c r="V14" s="73"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
@@ -9856,15 +9866,15 @@
       <c r="J15" s="35"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
       <c r="V15" s="73"/>
       <c r="W15" s="47"/>
       <c r="X15" s="47"/>
@@ -9891,15 +9901,15 @@
       <c r="J16" s="35"/>
       <c r="K16" s="86"/>
       <c r="L16" s="86"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
       <c r="V16" s="73"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
@@ -10037,13 +10047,13 @@
       <c r="P20" s="73"/>
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
-      <c r="S20" s="166" t="s">
+      <c r="S20" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="T20" s="167"/>
-      <c r="U20" s="167"/>
-      <c r="V20" s="167"/>
-      <c r="W20" s="168"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="161"/>
       <c r="X20" s="47"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
@@ -10074,11 +10084,11 @@
       <c r="P21" s="73"/>
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
-      <c r="S21" s="169"/>
-      <c r="T21" s="170"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="170"/>
-      <c r="W21" s="171"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="164"/>
       <c r="X21" s="47"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
@@ -10248,9 +10258,9 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="47"/>
@@ -10283,9 +10293,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="47"/>
@@ -10827,6 +10837,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M14:U16"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="S20:W21"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -10838,13 +10855,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="M14:U16"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="S20:W21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15885,8 +15895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EC8C9-8A95-4096-ACFB-FEBC0BB9F051}">
   <dimension ref="A1:FV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -15900,124 +15910,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="133" t="s">
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="135"/>
+      <c r="AH2" s="149"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="149"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -16238,23 +16248,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -16268,31 +16278,31 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="137"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="151"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -16306,10 +16316,10 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="139"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="153"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -16352,51 +16362,51 @@
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="149"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="142" t="s">
+      <c r="K9" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="142" t="s">
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="142" t="s">
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="142" t="s">
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="142" t="s">
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="142" t="s">
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="142" t="s">
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="139"/>
       <c r="AF9" s="39"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="39"/>
@@ -16404,35 +16414,35 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="152"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
       <c r="AF10" s="39"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="39"/>
@@ -16493,13 +16503,13 @@
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
       <c r="C12" s="60"/>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
       <c r="I12" s="35"/>
       <c r="J12" s="39"/>
       <c r="K12" s="35"/>
@@ -16531,11 +16541,11 @@
       <c r="A13" s="37"/>
       <c r="B13" s="35"/>
       <c r="C13" s="60"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
       <c r="I13" s="35"/>
       <c r="J13" s="39"/>
       <c r="K13" s="35"/>
@@ -17040,14 +17050,14 @@
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
       <c r="I26" s="35"/>
       <c r="J26" s="39"/>
       <c r="K26" s="34">
@@ -17130,16 +17140,16 @@
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="161" t="s">
+      <c r="C28" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="161" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="162"/>
-      <c r="H28" s="163"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136"/>
       <c r="I28" s="35"/>
       <c r="J28" s="39"/>
       <c r="K28" s="35"/>
@@ -17507,28 +17517,28 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="159" t="s">
+      <c r="H38" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="159"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="159"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="159"/>
-      <c r="S38" s="159"/>
-      <c r="T38" s="159"/>
-      <c r="U38" s="159"/>
-      <c r="V38" s="159"/>
-      <c r="W38" s="159"/>
-      <c r="X38" s="159"/>
-      <c r="Y38" s="159"/>
-      <c r="Z38" s="159"/>
-      <c r="AA38" s="159"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -17683,19 +17693,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="T9:V10"/>
-    <mergeCell ref="W9:Y10"/>
-    <mergeCell ref="Z9:AB10"/>
-    <mergeCell ref="AC9:AE10"/>
-    <mergeCell ref="C9:I10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="Q9:S10"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -17705,11 +17707,19 @@
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="J6:L7"/>
     <mergeCell ref="M6:O7"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="W9:Y10"/>
+    <mergeCell ref="Z9:AB10"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="C9:I10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="Q9:S10"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D12:H13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17740,121 +17750,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="149"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="149"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -18073,22 +18083,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -18102,28 +18112,28 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="151"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -18137,10 +18147,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="153"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -18296,15 +18306,15 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="164" t="s">
+      <c r="L12" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="158"/>
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
       <c r="U12" s="53"/>
@@ -18333,13 +18343,13 @@
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="158"/>
       <c r="S13" s="47"/>
       <c r="T13" s="47"/>
       <c r="U13" s="53"/>
@@ -18798,11 +18808,11 @@
       <c r="O26" s="47"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="166" t="s">
+      <c r="R26" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="167"/>
-      <c r="T26" s="168"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="161"/>
       <c r="U26" s="53"/>
       <c r="V26" s="47"/>
       <c r="W26" s="47"/>
@@ -18835,9 +18845,9 @@
       <c r="O27" s="47"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="171"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="164"/>
       <c r="U27" s="53"/>
       <c r="V27" s="47"/>
       <c r="W27" s="47"/>
@@ -19381,22 +19391,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="L12:R13"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="C6:E7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
     <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
-    <mergeCell ref="L12:R13"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19427,121 +19437,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="149"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="149"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -19760,22 +19770,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -19789,28 +19799,28 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="151"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -19824,10 +19834,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="153"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -19871,15 +19881,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -19908,13 +19918,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -19943,13 +19953,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -20487,11 +20497,11 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="166" t="s">
+      <c r="R26" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="S26" s="167"/>
-      <c r="T26" s="168"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="161"/>
       <c r="U26" s="73"/>
       <c r="V26" s="81"/>
       <c r="W26" s="47"/>
@@ -20524,9 +20534,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="171"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="164"/>
       <c r="U27" s="73"/>
       <c r="V27" s="81"/>
       <c r="W27" s="47"/>
@@ -21068,6 +21078,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="E9:K11"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
@@ -21078,12 +21094,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="E9:K11"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21114,121 +21124,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="149"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="149"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -21447,22 +21457,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -21476,30 +21486,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="151"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -21513,10 +21523,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="153"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -21560,15 +21570,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -21597,13 +21607,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -21632,13 +21642,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -21706,26 +21716,26 @@
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="173" t="s">
+      <c r="I13" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
@@ -21743,24 +21753,24 @@
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="173"/>
-      <c r="Z14" s="173"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
@@ -21778,24 +21788,24 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="166"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
@@ -22178,9 +22188,9 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="47"/>
@@ -22213,9 +22223,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="47"/>
@@ -22247,17 +22257,17 @@
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
       <c r="P28" s="73"/>
-      <c r="Q28" s="166" t="s">
+      <c r="Q28" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="167"/>
-      <c r="S28" s="168"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="161"/>
       <c r="T28" s="73"/>
-      <c r="U28" s="166" t="s">
+      <c r="U28" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="167"/>
-      <c r="W28" s="168"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="161"/>
       <c r="X28" s="47"/>
       <c r="Y28" s="35"/>
       <c r="Z28" s="35"/>
@@ -22286,13 +22296,13 @@
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
       <c r="P29" s="73"/>
-      <c r="Q29" s="169"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="171"/>
+      <c r="Q29" s="162"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="164"/>
       <c r="T29" s="73"/>
-      <c r="U29" s="169"/>
-      <c r="V29" s="170"/>
-      <c r="W29" s="171"/>
+      <c r="U29" s="162"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="164"/>
       <c r="X29" s="47"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
@@ -22761,6 +22771,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="I13:Z15"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="U28:W29"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -22772,14 +22790,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="I13:Z15"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="U28:W29"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22810,121 +22820,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="149"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="149"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -23143,22 +23153,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -23172,30 +23182,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="151"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -23209,10 +23219,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="153"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -23256,15 +23266,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -23293,13 +23303,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -23328,13 +23338,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -23440,17 +23450,17 @@
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="L14" s="86"/>
-      <c r="M14" s="173" t="s">
+      <c r="M14" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
       <c r="V14" s="73"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
@@ -23477,15 +23487,15 @@
       <c r="J15" s="35"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
       <c r="V15" s="73"/>
       <c r="W15" s="47"/>
       <c r="X15" s="47"/>
@@ -23512,15 +23522,15 @@
       <c r="J16" s="35"/>
       <c r="K16" s="86"/>
       <c r="L16" s="86"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
       <c r="V16" s="73"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
@@ -23659,13 +23669,13 @@
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
-      <c r="T20" s="166" t="s">
+      <c r="T20" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="U20" s="167"/>
-      <c r="V20" s="167"/>
-      <c r="W20" s="167"/>
-      <c r="X20" s="168"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="161"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
@@ -23696,11 +23706,11 @@
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
       <c r="S21" s="73"/>
-      <c r="T21" s="169"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="170"/>
-      <c r="W21" s="170"/>
-      <c r="X21" s="171"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="163"/>
+      <c r="X21" s="164"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
@@ -23869,9 +23879,9 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="47"/>
@@ -23904,9 +23914,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="47"/>
@@ -24448,6 +24458,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="M14:U16"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="T20:X21"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -24459,13 +24476,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="M14:U16"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="T20:X21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/basic_portfolio.xlsx
+++ b/basic_portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/kadai/kadai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{C6F4126F-DA68-4C4B-9D0B-397E073F88F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A666A7D-A376-4E6A-9E0E-8CE3BC36F62C}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{C6F4126F-DA68-4C4B-9D0B-397E073F88F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DD848BB-C656-40D2-96E0-A4AE6041DD6D}"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="5070" windowWidth="17280" windowHeight="9030" tabRatio="774" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32715" yWindow="5070" windowWidth="17280" windowHeight="9030" tabRatio="774" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <sheet name="画面レイアウト_予定入力" sheetId="38" r:id="rId11"/>
     <sheet name="画面レイアウト_予定完了" sheetId="39" r:id="rId12"/>
     <sheet name="画面レイアウト_設定入力" sheetId="43" r:id="rId13"/>
-    <sheet name="画面レイアウト_設定入力カレンダー" sheetId="46" r:id="rId14"/>
-    <sheet name="画面レイアウト_設定確認" sheetId="44" r:id="rId15"/>
-    <sheet name="画面レイアウト_設定完了" sheetId="45" r:id="rId16"/>
+    <sheet name="画面レイアウト_設定確認" sheetId="44" r:id="rId14"/>
+    <sheet name="画面レイアウト_設定完了" sheetId="45" r:id="rId15"/>
+    <sheet name="画面レイアウト_設定カレンダー" sheetId="46" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図_ログイン!$A$1:$AG$42</definedName>
@@ -39,10 +39,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">画面レイアウト_新規会員登録!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">画面レイアウト_新規会員登録確認!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">画面レイアウト_新規会員登録完了!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">画面レイアウト_設定確認!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">画面レイアウト_設定完了!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">画面レイアウト_設定カレンダー!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">画面レイアウト_設定確認!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">画面レイアウト_設定完了!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">画面レイアウト_設定入力!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">画面レイアウト_設定入力カレンダー!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">画面レイアウト_予定完了!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">画面レイアウト_予定追加!$A$1:$AH$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">画面レイアウト_予定入力!$A$1:$AH$42</definedName>
@@ -55,10 +55,10 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">画面レイアウト_新規会員登録!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">画面レイアウト_新規会員登録確認!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">画面レイアウト_新規会員登録完了!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="14">画面レイアウト_設定確認!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="15">画面レイアウト_設定完了!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="15">画面レイアウト_設定カレンダー!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">画面レイアウト_設定確認!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">画面レイアウト_設定完了!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">画面レイアウト_設定入力!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="13">画面レイアウト_設定入力カレンダー!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">画面レイアウト_予定完了!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">画面レイアウト_予定追加!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">画面レイアウト_予定入力!$1:$3</definedName>
@@ -1400,6 +1400,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -1445,34 +1466,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,23 +1511,35 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,27 +1604,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4552,20 +4552,20 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="120"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -4584,26 +4584,26 @@
     </row>
     <row r="9" spans="1:256" ht="13.05" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="116" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="129"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -4622,22 +4622,22 @@
     </row>
     <row r="10" spans="1:256" ht="13.05" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="121"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="132"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -4848,26 +4848,26 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="122" t="s">
+      <c r="H17" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -4883,24 +4883,24 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -4916,24 +4916,24 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="133"/>
+      <c r="X19" s="133"/>
+      <c r="Y19" s="133"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -5161,12 +5161,12 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="123">
+      <c r="F26" s="134">
         <v>38487</v>
       </c>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="136"/>
       <c r="J26" s="23" t="s">
         <v>16</v>
       </c>
@@ -5812,124 +5812,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
+      <c r="AH1" s="167"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="133" t="s">
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="135"/>
+      <c r="AH2" s="160"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="160"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -6150,23 +6150,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -6178,35 +6178,35 @@
       <c r="X6" s="34"/>
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
-      <c r="AA6" s="136" t="s">
+      <c r="AA6" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136" t="s">
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="137"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="162"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -6218,12 +6218,12 @@
       <c r="X7" s="42"/>
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="139"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="164"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -6266,51 +6266,51 @@
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="142" t="s">
+      <c r="K9" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="142" t="s">
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="142" t="s">
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="142" t="s">
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="142" t="s">
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="142" t="s">
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="142" t="s">
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="150"/>
       <c r="AF9" s="39"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="39"/>
@@ -6318,35 +6318,35 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
       <c r="AF10" s="39"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="39"/>
@@ -6354,11 +6354,11 @@
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="35"/>
-      <c r="C11" s="167" t="s">
+      <c r="C11" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -6408,12 +6408,12 @@
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="183"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -6460,10 +6460,10 @@
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -6998,14 +6998,14 @@
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="35"/>
       <c r="J26" s="39"/>
       <c r="K26" s="34">
@@ -7102,16 +7102,16 @@
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="153" t="s">
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="154"/>
-      <c r="H28" s="155"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="35"/>
       <c r="J28" s="39"/>
       <c r="K28" s="35"/>
@@ -7485,26 +7485,26 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -7659,15 +7659,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="W9:Y10"/>
+    <mergeCell ref="Z9:AB10"/>
     <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:F13"/>
@@ -7683,11 +7679,15 @@
     <mergeCell ref="Q9:S10"/>
     <mergeCell ref="T9:V10"/>
     <mergeCell ref="AA6:AB7"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="W9:Y10"/>
-    <mergeCell ref="Z9:AB10"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7703,7 +7703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCBC6DC-ADA6-4C87-B402-C005D65964A0}">
   <dimension ref="A1:FV42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -7718,124 +7718,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
+      <c r="AH1" s="167"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="133" t="s">
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="135"/>
+      <c r="AH2" s="160"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="160"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -8056,23 +8056,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -8086,31 +8086,31 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="137"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="162"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -8124,10 +8124,10 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="139"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="164"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -8171,15 +8171,15 @@
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
       <c r="C9" s="95"/>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
       <c r="K9" s="96"/>
       <c r="L9" s="96"/>
       <c r="M9" s="96"/>
@@ -8209,13 +8209,13 @@
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
       <c r="K10" s="96"/>
       <c r="L10" s="96"/>
       <c r="M10" s="96"/>
@@ -8957,12 +8957,12 @@
       <c r="T30" s="96"/>
       <c r="U30" s="96"/>
       <c r="V30" s="96"/>
-      <c r="W30" s="144" t="s">
+      <c r="W30" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="X30" s="145"/>
-      <c r="Y30" s="145"/>
-      <c r="Z30" s="146"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="153"/>
       <c r="AA30" s="96"/>
       <c r="AB30" s="96"/>
       <c r="AC30" s="96"/>
@@ -8995,10 +8995,10 @@
       <c r="T31" s="96"/>
       <c r="U31" s="96"/>
       <c r="V31" s="96"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="177"/>
+      <c r="W31" s="154"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="188"/>
       <c r="AA31" s="96"/>
       <c r="AB31" s="96"/>
       <c r="AC31" s="96"/>
@@ -9031,10 +9031,10 @@
       <c r="T32" s="96"/>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
-      <c r="W32" s="176"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="150"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="157"/>
       <c r="AA32" s="96"/>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
@@ -9232,26 +9232,26 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -9406,6 +9406,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="W30:Z32"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="M6:O7"/>
     <mergeCell ref="AC6:AF7"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
@@ -9416,13 +9423,6 @@
     <mergeCell ref="G3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="W30:Z32"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="M6:O7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9453,121 +9453,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -9786,22 +9786,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -9815,30 +9815,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -9852,10 +9852,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -9899,15 +9899,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -9936,13 +9936,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -9971,13 +9971,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -10083,17 +10083,17 @@
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="L14" s="86"/>
-      <c r="M14" s="166" t="s">
+      <c r="M14" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
       <c r="V14" s="73"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
@@ -10120,15 +10120,15 @@
       <c r="J15" s="35"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
       <c r="V15" s="73"/>
       <c r="W15" s="47"/>
       <c r="X15" s="47"/>
@@ -10155,15 +10155,15 @@
       <c r="J16" s="35"/>
       <c r="K16" s="86"/>
       <c r="L16" s="86"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
       <c r="V16" s="73"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
@@ -10301,13 +10301,13 @@
       <c r="P20" s="73"/>
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
-      <c r="S20" s="159" t="s">
+      <c r="S20" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="161"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="172"/>
       <c r="X20" s="47"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
@@ -10338,11 +10338,11 @@
       <c r="P21" s="73"/>
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="164"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="175"/>
       <c r="X21" s="47"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
@@ -10512,9 +10512,9 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="47"/>
@@ -10547,9 +10547,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="47"/>
@@ -11091,6 +11091,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M14:U16"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="S20:W21"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -11102,13 +11109,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="M14:U16"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="S20:W21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11124,7 +11124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6287F99-5CBB-4417-BF1A-6021FD7BB8CD}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -11139,121 +11139,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -11472,22 +11472,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -11501,30 +11501,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -11538,10 +11538,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -11585,15 +11585,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -11622,13 +11622,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -11657,13 +11657,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -11771,13 +11771,13 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183" t="s">
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="112" t="s">
         <v>84</v>
       </c>
       <c r="Q14" s="86"/>
@@ -11917,7 +11917,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="186"/>
+      <c r="J18" s="115"/>
       <c r="K18" s="73"/>
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
@@ -11953,9 +11953,9 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="179"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="108"/>
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
       <c r="P19" s="73"/>
@@ -12096,7 +12096,7 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="186"/>
+      <c r="J23" s="115"/>
       <c r="K23" s="73"/>
       <c r="L23" s="73"/>
       <c r="M23" s="73"/>
@@ -12132,9 +12132,9 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="179"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
       <c r="P24" s="73"/>
@@ -12211,9 +12211,9 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="47"/>
@@ -12246,9 +12246,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="47"/>
@@ -12345,7 +12345,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="184"/>
+      <c r="J30" s="113"/>
       <c r="K30" s="73"/>
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
@@ -12380,7 +12380,7 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="180"/>
+      <c r="J31" s="109"/>
       <c r="K31" s="84"/>
       <c r="L31" s="84"/>
       <c r="M31" s="84"/>
@@ -12395,7 +12395,7 @@
       <c r="V31" s="84"/>
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
-      <c r="Y31" s="185"/>
+      <c r="Y31" s="114"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
       <c r="AB31" s="35"/>
@@ -12519,11 +12519,11 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
-      <c r="Y35" s="140" t="s">
+      <c r="Y35" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="136"/>
-      <c r="AA35" s="137"/>
+      <c r="Z35" s="161"/>
+      <c r="AA35" s="162"/>
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
@@ -12556,9 +12556,9 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
-      <c r="Y36" s="141"/>
-      <c r="Z36" s="138"/>
-      <c r="AA36" s="139"/>
+      <c r="Y36" s="166"/>
+      <c r="Z36" s="163"/>
+      <c r="AA36" s="164"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
       <c r="AD36" s="35"/>
@@ -12778,12 +12778,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="Y35:AA36"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -12795,6 +12789,12 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="Y35:AA36"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12807,11 +12807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238B5BE-A157-4FE7-A2CE-C96E2A957710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484720CD-7178-49D3-A0BC-A37C702A91AB}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -12825,121 +12825,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -13158,22 +13158,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -13187,30 +13187,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -13224,10 +13224,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -13271,15 +13271,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -13308,13 +13308,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -13343,13 +13343,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -13381,23 +13381,25 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="35" t="s">
+        <v>88</v>
+      </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35"/>
@@ -13418,23 +13420,21 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="35"/>
@@ -13449,31 +13449,29 @@
       <c r="A14" s="37"/>
       <c r="B14" s="35"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="35" t="s">
-        <v>96</v>
-      </c>
+      <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
+      <c r="J14" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
       <c r="Z14" s="35"/>
       <c r="AA14" s="35"/>
@@ -13494,21 +13492,23 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
+      <c r="J15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
@@ -13523,29 +13523,27 @@
       <c r="A16" s="37"/>
       <c r="B16" s="35"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="35" t="s">
-        <v>97</v>
-      </c>
+      <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
       <c r="AA16" s="35"/>
@@ -13567,7 +13565,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
@@ -13603,19 +13601,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="184"/>
-      <c r="N18" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="184"/>
-      <c r="P18" s="35" t="s">
-        <v>100</v>
-      </c>
+      <c r="J18" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
@@ -13680,7 +13674,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
@@ -13716,19 +13710,15 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M21" s="184"/>
-      <c r="N21" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="O21" s="184"/>
-      <c r="P21" s="35" t="s">
-        <v>100</v>
-      </c>
+      <c r="J21" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
@@ -13792,7 +13782,9 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
@@ -13828,7 +13820,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
@@ -13864,18 +13856,18 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
-      <c r="T25" s="188"/>
-      <c r="U25" s="185"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
@@ -13944,9 +13936,11 @@
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
+      <c r="T27" s="165" t="s">
+        <v>61</v>
+      </c>
+      <c r="U27" s="161"/>
+      <c r="V27" s="162"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -13969,9 +13963,7 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="35" t="s">
-        <v>104</v>
-      </c>
+      <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
@@ -13981,9 +13973,9 @@
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="164"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -14006,18 +13998,18 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="36"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -14041,7 +14033,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="37"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
@@ -14052,7 +14044,7 @@
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
-      <c r="U30" s="39"/>
+      <c r="U30" s="35"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -14076,18 +14068,18 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="43"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
@@ -14192,11 +14184,9 @@
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
-      <c r="U34" s="140" t="s">
-        <v>87</v>
-      </c>
-      <c r="V34" s="136"/>
-      <c r="W34" s="137"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
       <c r="Z34" s="35"/>
@@ -14229,9 +14219,9 @@
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="138"/>
-      <c r="W35" s="139"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
       <c r="Z35" s="35"/>
@@ -14490,11 +14480,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="U34:W35"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -14506,6 +14491,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T27:V28"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14518,11 +14508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484720CD-7178-49D3-A0BC-A37C702A91AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C33897-20F2-4D69-86BE-25AE514611F8}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -14536,121 +14526,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -14869,22 +14859,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -14898,30 +14888,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -14935,10 +14925,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -14982,15 +14972,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -15019,13 +15009,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -15054,13 +15044,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -15092,25 +15082,23 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
-        <v>88</v>
-      </c>
+      <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35"/>
@@ -15132,20 +15120,20 @@
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="35"/>
@@ -15166,23 +15154,20 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
       <c r="Y14" s="35"/>
       <c r="Z14" s="35"/>
       <c r="AA14" s="35"/>
@@ -15203,23 +15188,23 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="177" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
@@ -15241,20 +15226,20 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
       <c r="AA16" s="35"/>
@@ -15275,23 +15260,21 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="35"/>
@@ -15312,23 +15295,21 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
@@ -15350,20 +15331,20 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
       <c r="AA19" s="35"/>
@@ -15384,23 +15365,21 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="47"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
@@ -15421,23 +15400,21 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="47"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
@@ -15459,20 +15436,22 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="170" t="s">
+        <v>78</v>
+      </c>
+      <c r="T22" s="171"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="47"/>
       <c r="Y22" s="35"/>
       <c r="Z22" s="35"/>
       <c r="AA22" s="35"/>
@@ -15493,23 +15472,21 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="174"/>
+      <c r="U23" s="174"/>
+      <c r="V23" s="174"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="47"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="35"/>
@@ -15530,23 +15507,21 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
       <c r="Y24" s="35"/>
       <c r="Z24" s="35"/>
       <c r="AA24" s="35"/>
@@ -15568,20 +15543,20 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
       <c r="AA25" s="35"/>
@@ -15603,20 +15578,20 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
       <c r="Y26" s="35"/>
       <c r="Z26" s="35"/>
       <c r="AA26" s="35"/>
@@ -15638,22 +15613,20 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="U27" s="136"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
@@ -15675,20 +15648,20 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
       <c r="Y28" s="35"/>
       <c r="Z28" s="35"/>
       <c r="AA28" s="35"/>
@@ -15710,20 +15683,20 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
       <c r="AA29" s="35"/>
@@ -15745,20 +15718,20 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
       <c r="Y30" s="35"/>
       <c r="Z30" s="35"/>
       <c r="AA30" s="35"/>
@@ -15780,20 +15753,20 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
@@ -15815,20 +15788,20 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
       <c r="Y32" s="35"/>
       <c r="Z32" s="35"/>
       <c r="AA32" s="35"/>
@@ -15850,20 +15823,20 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="35"/>
       <c r="AA33" s="35"/>
@@ -15885,20 +15858,20 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
       <c r="Y34" s="35"/>
       <c r="Z34" s="35"/>
       <c r="AA34" s="35"/>
@@ -15934,9 +15907,9 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143"/>
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
@@ -15969,9 +15942,9 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="143"/>
+      <c r="AA36" s="143"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
       <c r="AD36" s="35"/>
@@ -15988,25 +15961,25 @@
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
       <c r="AB37" s="42"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="42"/>
@@ -16190,12 +16163,7 @@
       <c r="AG42" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="T27:V28"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
+  <mergeCells count="19">
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -16207,6 +16175,14 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="Y35:AA36"/>
+    <mergeCell ref="L15:T17"/>
+    <mergeCell ref="S22:W23"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -16219,11 +16195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C33897-20F2-4D69-86BE-25AE514611F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238B5BE-A157-4FE7-A2CE-C96E2A957710}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16237,121 +16213,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -16570,22 +16546,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -16599,30 +16575,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -16636,10 +16612,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -16683,15 +16659,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -16720,13 +16696,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -16755,13 +16731,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -16830,7 +16806,9 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="K13" s="73"/>
       <c r="L13" s="73"/>
       <c r="M13" s="73"/>
@@ -16859,18 +16837,23 @@
       <c r="A14" s="37"/>
       <c r="B14" s="35"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>96</v>
+      </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="187"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="112" t="s">
+        <v>84</v>
+      </c>
       <c r="Q14" s="86"/>
       <c r="R14" s="86"/>
       <c r="S14" s="86"/>
@@ -16901,17 +16884,15 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="86"/>
-      <c r="L15" s="166" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
       <c r="U15" s="86"/>
       <c r="V15" s="73"/>
       <c r="W15" s="47"/>
@@ -16930,7 +16911,9 @@
       <c r="A16" s="37"/>
       <c r="B16" s="35"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="35"/>
+      <c r="D16" s="35" t="s">
+        <v>97</v>
+      </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
@@ -16938,15 +16921,15 @@
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="86"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
       <c r="U16" s="86"/>
       <c r="V16" s="73"/>
       <c r="W16" s="47"/>
@@ -16971,21 +16954,23 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
+      <c r="J17" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="35"/>
@@ -17006,21 +16991,27 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="113"/>
+      <c r="N18" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="113"/>
+      <c r="P18" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
@@ -17042,20 +17033,20 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
       <c r="AA19" s="35"/>
@@ -17076,21 +17067,23 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="47"/>
+      <c r="J20" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
@@ -17111,21 +17104,27 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="47"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="113"/>
+      <c r="N21" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="113"/>
+      <c r="P21" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
@@ -17147,22 +17146,20 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="159" t="s">
-        <v>78</v>
-      </c>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="47"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
       <c r="Z22" s="35"/>
       <c r="AA22" s="35"/>
@@ -17184,20 +17181,20 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="47"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="35"/>
@@ -17218,21 +17215,23 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
+      <c r="J24" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
       <c r="Z24" s="35"/>
       <c r="AA24" s="35"/>
@@ -17253,21 +17252,21 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
       <c r="AA25" s="35"/>
@@ -17289,20 +17288,20 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
       <c r="Z26" s="35"/>
       <c r="AA26" s="35"/>
@@ -17324,20 +17323,20 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
@@ -17358,21 +17357,23 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
+      <c r="J28" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
       <c r="Z28" s="35"/>
       <c r="AA28" s="35"/>
@@ -17393,21 +17394,21 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
       <c r="AA29" s="35"/>
@@ -17428,21 +17429,21 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
       <c r="Z30" s="35"/>
       <c r="AA30" s="35"/>
@@ -17463,21 +17464,21 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
@@ -17499,20 +17500,20 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
       <c r="Z32" s="35"/>
       <c r="AA32" s="35"/>
@@ -17534,20 +17535,20 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="35"/>
       <c r="AA33" s="35"/>
@@ -17569,20 +17570,22 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="165" t="s">
+        <v>87</v>
+      </c>
+      <c r="V34" s="161"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
       <c r="Z34" s="35"/>
       <c r="AA34" s="35"/>
@@ -17614,13 +17617,13 @@
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
+      <c r="U35" s="166"/>
+      <c r="V35" s="163"/>
+      <c r="W35" s="164"/>
       <c r="X35" s="35"/>
-      <c r="Y35" s="151"/>
-      <c r="Z35" s="151"/>
-      <c r="AA35" s="151"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
@@ -17653,9 +17656,9 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
-      <c r="Y36" s="151"/>
-      <c r="Z36" s="151"/>
-      <c r="AA36" s="151"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
       <c r="AD36" s="35"/>
@@ -17672,25 +17675,25 @@
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
       <c r="AB37" s="42"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="42"/>
@@ -17874,15 +17877,7 @@
       <c r="AG42" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="Y35:AA36"/>
-    <mergeCell ref="L15:T17"/>
-    <mergeCell ref="S22:W23"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
+  <mergeCells count="16">
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -17894,6 +17889,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="U34:W35"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17924,127 +17924,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="127" t="s">
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="129"/>
+      <c r="AG2" s="140"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="127" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="130" t="s">
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="127" t="s">
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="129"/>
+      <c r="AG3" s="140"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -19599,127 +19599,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="127" t="s">
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="129"/>
+      <c r="AG2" s="140"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="127" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="130" t="s">
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="127" t="s">
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="129"/>
+      <c r="AG3" s="140"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -21274,127 +21274,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="127" t="s">
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="129"/>
+      <c r="AG2" s="140"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="127" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="130" t="s">
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="127" t="s">
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="129"/>
+      <c r="AG3" s="140"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -22934,7 +22934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EC8C9-8A95-4096-ACFB-FEBC0BB9F051}">
   <dimension ref="A1:FV42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -22949,124 +22949,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
+      <c r="AH1" s="167"/>
     </row>
     <row r="2" spans="1:178" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="133" t="s">
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="135"/>
+      <c r="AH2" s="160"/>
     </row>
     <row r="3" spans="1:178" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="160"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
@@ -23287,23 +23287,23 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -23317,31 +23317,31 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="137"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="162"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="39"/>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -23355,10 +23355,10 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="139"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="164"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="39"/>
     </row>
@@ -23401,51 +23401,51 @@
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="142" t="s">
+      <c r="K9" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="142" t="s">
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="142" t="s">
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="142" t="s">
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="142" t="s">
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="142" t="s">
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="142" t="s">
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="150"/>
       <c r="AF9" s="39"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="39"/>
@@ -23453,35 +23453,35 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
       <c r="AF10" s="39"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="39"/>
@@ -23542,13 +23542,13 @@
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
       <c r="C12" s="60"/>
-      <c r="D12" s="156" t="s">
+      <c r="D12" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
       <c r="I12" s="35"/>
       <c r="J12" s="39"/>
       <c r="K12" s="35"/>
@@ -23580,11 +23580,11 @@
       <c r="A13" s="37"/>
       <c r="B13" s="35"/>
       <c r="C13" s="60"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
       <c r="I13" s="35"/>
       <c r="J13" s="39"/>
       <c r="K13" s="35"/>
@@ -24089,14 +24089,14 @@
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="35"/>
       <c r="J26" s="39"/>
       <c r="K26" s="34">
@@ -24179,16 +24179,16 @@
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="153" t="s">
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="154"/>
-      <c r="H28" s="155"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="35"/>
       <c r="J28" s="39"/>
       <c r="K28" s="35"/>
@@ -24556,28 +24556,28 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="151" t="s">
+      <c r="H38" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -24732,19 +24732,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="T9:V10"/>
-    <mergeCell ref="W9:Y10"/>
-    <mergeCell ref="Z9:AB10"/>
-    <mergeCell ref="AC9:AE10"/>
-    <mergeCell ref="C9:I10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="Q9:S10"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -24754,11 +24746,19 @@
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="J6:L7"/>
     <mergeCell ref="M6:O7"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="W9:Y10"/>
+    <mergeCell ref="Z9:AB10"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="C9:I10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="Q9:S10"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D12:H13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -24789,121 +24789,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -25122,22 +25122,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -25151,28 +25151,28 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -25186,10 +25186,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -25345,15 +25345,15 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="157" t="s">
+      <c r="L12" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="158"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
       <c r="U12" s="53"/>
@@ -25382,13 +25382,13 @@
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
       <c r="S13" s="47"/>
       <c r="T13" s="47"/>
       <c r="U13" s="53"/>
@@ -25847,11 +25847,11 @@
       <c r="O26" s="47"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="159" t="s">
+      <c r="R26" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="160"/>
-      <c r="T26" s="161"/>
+      <c r="S26" s="171"/>
+      <c r="T26" s="172"/>
       <c r="U26" s="53"/>
       <c r="V26" s="47"/>
       <c r="W26" s="47"/>
@@ -25884,9 +25884,9 @@
       <c r="O27" s="47"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="164"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="175"/>
       <c r="U27" s="53"/>
       <c r="V27" s="47"/>
       <c r="W27" s="47"/>
@@ -26430,22 +26430,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="L12:R13"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="C6:E7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
     <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
-    <mergeCell ref="L12:R13"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26476,121 +26476,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -26809,22 +26809,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -26838,28 +26838,28 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -26873,10 +26873,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -26920,15 +26920,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -26957,13 +26957,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -26992,13 +26992,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -27536,11 +27536,11 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="159" t="s">
+      <c r="R26" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="S26" s="160"/>
-      <c r="T26" s="161"/>
+      <c r="S26" s="171"/>
+      <c r="T26" s="172"/>
       <c r="U26" s="73"/>
       <c r="V26" s="81"/>
       <c r="W26" s="47"/>
@@ -27573,9 +27573,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="164"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="175"/>
       <c r="U27" s="73"/>
       <c r="V27" s="81"/>
       <c r="W27" s="47"/>
@@ -28117,6 +28117,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="E9:K11"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
@@ -28127,12 +28133,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="E9:K11"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -28163,121 +28163,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -28496,22 +28496,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -28525,30 +28525,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -28562,10 +28562,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -28609,15 +28609,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -28646,13 +28646,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -28681,13 +28681,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -28755,26 +28755,26 @@
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="166" t="s">
+      <c r="I13" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
@@ -28792,24 +28792,24 @@
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="177"/>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
@@ -28827,24 +28827,24 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
@@ -29227,9 +29227,9 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="47"/>
@@ -29262,9 +29262,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="47"/>
@@ -29296,17 +29296,17 @@
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
       <c r="P28" s="73"/>
-      <c r="Q28" s="159" t="s">
+      <c r="Q28" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="160"/>
-      <c r="S28" s="161"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="172"/>
       <c r="T28" s="73"/>
-      <c r="U28" s="159" t="s">
+      <c r="U28" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="160"/>
-      <c r="W28" s="161"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="172"/>
       <c r="X28" s="47"/>
       <c r="Y28" s="35"/>
       <c r="Z28" s="35"/>
@@ -29335,13 +29335,13 @@
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
       <c r="P29" s="73"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="164"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="175"/>
       <c r="T29" s="73"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="164"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="175"/>
       <c r="X29" s="47"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
@@ -29810,6 +29810,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="I13:Z15"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="U28:W29"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -29821,14 +29829,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="I13:Z15"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="U28:W29"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -29859,121 +29859,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="133" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="133" t="s">
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="135"/>
+      <c r="AG2" s="160"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="135"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -30192,22 +30192,22 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -30221,30 +30221,30 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="136" t="s">
+      <c r="AB6" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="137"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -30258,10 +30258,10 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="164"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="39"/>
     </row>
@@ -30305,15 +30305,15 @@
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -30342,13 +30342,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -30377,13 +30377,13 @@
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -30489,17 +30489,17 @@
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="L14" s="86"/>
-      <c r="M14" s="166" t="s">
+      <c r="M14" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
       <c r="V14" s="73"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
@@ -30526,15 +30526,15 @@
       <c r="J15" s="35"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
       <c r="V15" s="73"/>
       <c r="W15" s="47"/>
       <c r="X15" s="47"/>
@@ -30561,15 +30561,15 @@
       <c r="J16" s="35"/>
       <c r="K16" s="86"/>
       <c r="L16" s="86"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
       <c r="V16" s="73"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
@@ -30708,13 +30708,13 @@
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
-      <c r="T20" s="159" t="s">
+      <c r="T20" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="161"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="172"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
@@ -30745,11 +30745,11 @@
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
       <c r="S21" s="73"/>
-      <c r="T21" s="162"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="163"/>
-      <c r="X21" s="164"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="174"/>
+      <c r="X21" s="175"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
@@ -30918,9 +30918,9 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="47"/>
@@ -30953,9 +30953,9 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="47"/>
@@ -31497,6 +31497,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="M14:U16"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="T20:X21"/>
     <mergeCell ref="AB6:AE7"/>
     <mergeCell ref="E9:K11"/>
     <mergeCell ref="A1:AG1"/>
@@ -31508,13 +31515,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="M14:U16"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="T20:X21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
